--- a/datafiles/enemy_data.xlsx
+++ b/datafiles/enemy_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -25,34 +25,46 @@
     <t>Venedaemon</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>Movement Speed</t>
-  </si>
-  <si>
-    <t>Melee Attack Damage 1</t>
-  </si>
-  <si>
-    <t>Melee Attack Damage 2</t>
-  </si>
-  <si>
-    <t>Ranged Attack Damage 1</t>
-  </si>
-  <si>
-    <t>Ranged Attack Damage 2</t>
-  </si>
-  <si>
-    <t>Is Flyer</t>
-  </si>
-  <si>
-    <t>Knockback Percentage</t>
-  </si>
-  <si>
     <t>Vulnadaemon</t>
+  </si>
+  <si>
+    <t>dice_hp_num</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>move_spd</t>
+  </si>
+  <si>
+    <t>is_flyer</t>
+  </si>
+  <si>
+    <t>dice_hp_sides</t>
+  </si>
+  <si>
+    <t>dice_melee_atk_num</t>
+  </si>
+  <si>
+    <t>dice_melee_atk_sides</t>
+  </si>
+  <si>
+    <t>dice_range_atk_num</t>
+  </si>
+  <si>
+    <t>dice_range_atk_sides</t>
+  </si>
+  <si>
+    <t>kb_percent</t>
+  </si>
+  <si>
+    <t>dice_hp_mod</t>
+  </si>
+  <si>
+    <t>dice_melee_atk_mod</t>
+  </si>
+  <si>
+    <t>dice_range_atk_mod</t>
   </si>
 </sst>
 </file>
@@ -76,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,12 +96,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,148 +427,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.45</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.45</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.45</v>
-      </c>
-      <c r="J4">
+      <c r="N4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
